--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3637808.113051984</v>
+        <v>3656182.802518107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800615</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>269.010098463741</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.60281064416425</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.0992346450741</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>317.2509173607183</v>
+        <v>396.1618938450834</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>60.85599612146594</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>217.5699682789832</v>
       </c>
       <c r="F8" t="n">
-        <v>194.412760458582</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117.1365314849862</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.0036366911897</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>143.3158222056515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>191.5549554302012</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>101.2898147863523</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>61.57244744068251</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>28.24398503385516</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.0424879565125</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>276.2330889766189</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>123.3569442318737</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>174.3062600431768</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>66.42146077867872</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>162.8517323474638</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.5269768002176</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.2109869119007726</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D37" t="n">
-        <v>122.0153542106075</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>25.06391152956898</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>212.7017977936086</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>6.64164807986991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498037</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>109.5988919864481</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0424879565125</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>173.6379015391945</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>160.075052841251</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>552.1509199010035</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>702.2675593133392</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>702.2675593133392</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.2675593133392</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238668</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C5" t="n">
-        <v>1143.650057298256</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="D5" t="n">
-        <v>785.3843586915057</v>
+        <v>1345.753111715327</v>
       </c>
       <c r="E5" t="n">
-        <v>785.3843586915057</v>
+        <v>1345.753111715327</v>
       </c>
       <c r="F5" t="n">
-        <v>374.3984539018981</v>
+        <v>934.7672069257198</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.919485916526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>308.9833029886191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>308.9833029886191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>161.070209406226</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1395.511531185079</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>1026.549014244667</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>668.283315637917</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E8" t="n">
-        <v>668.283315637917</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,49 +4881,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C10" t="n">
-        <v>217.9192350259435</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +4999,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5021,55 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M12" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.9805482336712</v>
+        <v>674.9958217162125</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883056</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883056</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883056</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1305.426416588</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>1305.426416588</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336712</v>
+        <v>1077.436865689982</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.9805482336712</v>
+        <v>856.6442865464522</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,46 +5261,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701553</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766187</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170016</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834048</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.597763704656</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>964.1357418247833</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>675.0071030383415</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>420.3226148324546</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>420.3226148324546</v>
       </c>
       <c r="X16" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,13 +5534,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,16 +5753,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5789,13 +5789,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>874.927113122792</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>874.927113122792</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>3054.076152669714</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>3361.396285949676</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>3691.258913613709</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>238.6741500022177</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022177</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022177</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022177</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1219.892948359297</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>965.2084601534104</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>675.7912901164498</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X25" t="n">
-        <v>447.8017392184324</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6218,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>3926.12130983931</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>3757.185126911404</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4625.176495604528</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4625.176495604528</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>4625.176495604528</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>4335.759325567567</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.84934122136</v>
+        <v>4107.76977466955</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>4107.76977466955</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,7 +6455,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7802503911732</v>
+        <v>3886.516115720546</v>
       </c>
       <c r="C31" t="n">
-        <v>275.8440674632664</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="D31" t="n">
-        <v>275.8440674632664</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="E31" t="n">
-        <v>275.8440674632664</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.21084526296</v>
+        <v>4296.154131448803</v>
       </c>
       <c r="W31" t="n">
-        <v>1075.21084526296</v>
+        <v>4296.154131448803</v>
       </c>
       <c r="X31" t="n">
-        <v>847.2212943649431</v>
+        <v>4068.164580550786</v>
       </c>
       <c r="Y31" t="n">
-        <v>626.428715221413</v>
+        <v>4068.164580550786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>4188.073909669421</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>4019.137726741514</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F34" t="n">
-        <v>213.9110074201016</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G34" t="n">
-        <v>213.9110074201016</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.641454921463</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>4636.856039710969</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>4636.856039710969</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>4636.856039710969</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>4636.856039710969</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>4408.866488812952</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>4188.073909669421</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7026,16 +7026,16 @@
         <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>3778.208216256919</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>3609.272033329012</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4724.462387223018</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4724.462387223018</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>4435.333748436576</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>4180.649260230689</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>4180.649260230689</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>4180.649260230689</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>3959.856681087158</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7172,22 +7172,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.5250474102529</v>
+        <v>545.6648329070717</v>
       </c>
       <c r="C40" t="n">
-        <v>394.5250474102529</v>
+        <v>545.6648329070717</v>
       </c>
       <c r="D40" t="n">
-        <v>394.5250474102529</v>
+        <v>395.5481934947359</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7330,52 +7330,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T40" t="n">
-        <v>973.0708562336554</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U40" t="n">
-        <v>683.9422174472136</v>
+        <v>1492.207535123689</v>
       </c>
       <c r="V40" t="n">
-        <v>683.9422174472136</v>
+        <v>1237.523046917803</v>
       </c>
       <c r="W40" t="n">
-        <v>394.5250474102529</v>
+        <v>948.1058768808418</v>
       </c>
       <c r="X40" t="n">
-        <v>394.5250474102529</v>
+        <v>948.1058768808418</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.5250474102529</v>
+        <v>727.3132977373116</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155874</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,7 +7494,7 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
         <v>1332.091733170013</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>238.6741500022177</v>
+        <v>502.7260840420523</v>
       </c>
       <c r="C43" t="n">
-        <v>238.6741500022177</v>
+        <v>502.7260840420523</v>
       </c>
       <c r="D43" t="n">
-        <v>238.6741500022177</v>
+        <v>502.7260840420523</v>
       </c>
       <c r="E43" t="n">
-        <v>238.6741500022177</v>
+        <v>354.8129904596591</v>
       </c>
       <c r="F43" t="n">
-        <v>238.6741500022177</v>
+        <v>207.9230429617486</v>
       </c>
       <c r="G43" t="n">
-        <v>238.6741500022177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324574</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324574</v>
+        <v>905.1671280158224</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324574</v>
+        <v>684.3745488722922</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.738453580939</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.8632439327646</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1137.304287906534</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1137.304287906534</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1137.304287906534</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>1137.304287906534</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X46" t="n">
-        <v>1137.304287906534</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.5117087630043</v>
+        <v>423.0269196489027</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711734</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229635</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119928</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>230.7151863772091</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>38.86002301949887</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>285.1031356539313</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>38.86002301949873</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>242.9997743936051</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262978</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>29.47535963978214</v>
+        <v>18.73797368291338</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720754</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>20.63789864135424</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23.93099889297636</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>60.58268789362683</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>124.4198406026849</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>190.5651958831455</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>151.5879951480821</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>8.871340411023652</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.0042634219584</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>98.19061682651559</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>51.40339534586036</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>78.99958724425252</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>89.28591097636433</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H34" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>197.7098230717026</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>26.60011880760486</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>172.8568984540344</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T40" t="n">
-        <v>8.845763264780686</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.5957043187075</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>56.89467647692959</v>
       </c>
       <c r="H43" t="n">
-        <v>8.871340411023652</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>6.194078642742824</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>61.47250821713828</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147616</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147616</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147614</v>
       </c>
       <c r="O2" t="n">
         <v>723403.7605147614</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029924</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230217</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26500,16 +26500,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90382.41863876019</v>
+        <v>-87854.09747531774</v>
       </c>
       <c r="C6" t="n">
-        <v>499585.4605757842</v>
+        <v>502113.7817392268</v>
       </c>
       <c r="D6" t="n">
-        <v>499585.4605757844</v>
+        <v>502113.7817392268</v>
       </c>
       <c r="E6" t="n">
-        <v>74918.03329884954</v>
+        <v>76952.852536847</v>
       </c>
       <c r="F6" t="n">
-        <v>600078.0697757457</v>
+        <v>602112.8890137422</v>
       </c>
       <c r="G6" t="n">
-        <v>600078.0697757453</v>
+        <v>602112.8890137423</v>
       </c>
       <c r="H6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137428</v>
       </c>
       <c r="I6" t="n">
-        <v>600078.0697757453</v>
+        <v>602112.8890137427</v>
       </c>
       <c r="J6" t="n">
-        <v>423654.8505831525</v>
+        <v>425689.6698211496</v>
       </c>
       <c r="K6" t="n">
-        <v>600078.0697757455</v>
+        <v>602112.8890137426</v>
       </c>
       <c r="L6" t="n">
-        <v>600078.0697757457</v>
+        <v>602112.8890137424</v>
       </c>
       <c r="M6" t="n">
-        <v>465277.0545419083</v>
+        <v>467311.8737799056</v>
       </c>
       <c r="N6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137427</v>
       </c>
       <c r="O6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137427</v>
       </c>
       <c r="P6" t="n">
-        <v>600078.0697757456</v>
+        <v>602112.8890137424</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>112.9202716085207</v>
+        <v>67.27672374555095</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.519939310750047</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>96.53325266007664</v>
+        <v>17.62227617571159</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>84.56505190146531</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="F8" t="n">
-        <v>212.4632852831295</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>31.47894153322612</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>17.43032595537946</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.303889294140892e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303408</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734289</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O12" t="n">
-        <v>356.0122956238148</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081193</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276745</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>245.9534379510236</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>534.3608406099556</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>189.435461607438</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>553.4241514440714</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477039</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>362.6699330377951</v>
+        <v>351.9325470809263</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178377</v>
@@ -37406,7 +37406,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187466</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415095</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>353.8324720393672</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3731712.472182911</v>
+        <v>3724695.457291199</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800627</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>123.0855352763924</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>279.9133128184451</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>77.15919157187217</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>2.287273915476826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>189.5571765105098</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>139.8939792152981</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>74.09260911231073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.149833621077</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0490377485341</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>140.9052243575423</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47237895099164</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>42.93948241199205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>10.07467816267981</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.678740373577151</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>10.37524371400709</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452448</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.86981761167102</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>28.56876306769616</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.154137045235</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274171</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1796758467</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.1622926248739</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274009</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262912</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014411</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.507043867063</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.4221611052071</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642717</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>192.195209393281</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.567526816317</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.567526816317</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537684</v>
+        <v>979.5885935818915</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>610.6260766414798</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>252.3603780347293</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>252.3603780347293</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>245.4148772855258</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2092.422847177207</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1366.188433646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1366.188433646013</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,43 +4652,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>195.2500315327868</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>195.2500315327868</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>195.2500315327868</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>195.2500315327868</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>195.2500315327868</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>128.7840011257288</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>286.5323736931987</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1344.321282933121</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1120.535867722626</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1120.535867722626</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>865.8513795167394</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>576.4342094797788</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X13" t="n">
-        <v>576.4342094797788</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y13" t="n">
-        <v>355.6416303362487</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1354.030683330847</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1130.245268120353</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1130.245268120353</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>875.5607799144661</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>875.5607799144661</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>647.5712290164488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,43 +5500,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4187.050763584938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4018.114580657031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>4817.481358456725</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>4589.491807558707</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>4368.699228415177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.0436439308535</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W22" t="n">
-        <v>975.825773972401</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X22" t="n">
-        <v>747.8362230743836</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.0436439308535</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>399.2640928619853</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>251.3509992795922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045608</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>731.0291971045608</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>275.872457296028</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C28" t="n">
-        <v>275.872457296028</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X28" t="n">
-        <v>496.665036439558</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y28" t="n">
-        <v>275.872457296028</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>427.7268833816378</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>898.7925182488382</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>609.3753482118775</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>609.3753482118775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.3753482118775</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>130.9054447954965</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3922.133756677159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4549.85945949167</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4549.85945949167</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>4549.85945949167</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>4321.869908593653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4101.077329450123</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822472</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1313.886294955175</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3276.77103143352</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080546</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823801</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514119</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795213</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515106</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.70982261914</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643339</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899145</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720785</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525777</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714507</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101995</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.806365104744</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.271807131629</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358144</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675021</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126491</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147105</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211766</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011405</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265294</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136702</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918913</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376137</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459912</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
         <v>2288.75278438369</v>
@@ -7766,7 +7766,7 @@
         <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043132</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
         <v>1363.4068948376</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.8250614170452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>726.8250614170452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>576.7084220047094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>428.7953284223163</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>281.9053809244059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9053809244059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241963</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688086</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.497233179939</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947123</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.91627055791</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.91627055791</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.91627055791</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352023</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150625</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170452</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>726.8250614170452</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>213.2603911806631</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M33" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>199.6230805871078</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.7164198729607</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>283.6093329825341</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544516</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.87177223506919</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>77.67942899455252</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>164.4484310326116</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>243.5835159245989</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>276.4483201739112</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>141.7423076493541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2402293042053</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>134.3770034869568</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>197.140892321341</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.2331835502362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.677843136702279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>14.74113413690324</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.6696875570634</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>76.49166726232895</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037924</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673713.7004289465</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
@@ -26322,40 +26322,40 @@
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.760514762</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="J2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.760514761</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26377,13 +26377,13 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.911872613832525e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.875354766729287e-09</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,10 +26426,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,28 +26438,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230229</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230209</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871672</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.0974753178</v>
+        <v>-87854.09747531769</v>
       </c>
       <c r="C6" t="n">
         <v>502113.7817392267</v>
@@ -26530,40 +26530,40 @@
         <v>502113.7817392268</v>
       </c>
       <c r="E6" t="n">
-        <v>76952.85253684656</v>
+        <v>75978.26127712447</v>
       </c>
       <c r="F6" t="n">
-        <v>602112.889013743</v>
+        <v>601138.2977540205</v>
       </c>
       <c r="G6" t="n">
-        <v>602112.8890137426</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="H6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="I6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540208</v>
       </c>
       <c r="J6" t="n">
-        <v>425689.6698211495</v>
+        <v>424715.0785614277</v>
       </c>
       <c r="K6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="L6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540208</v>
       </c>
       <c r="M6" t="n">
-        <v>467311.8737799054</v>
+        <v>466337.2825201837</v>
       </c>
       <c r="N6" t="n">
-        <v>602112.8890137428</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="O6" t="n">
-        <v>602112.8890137427</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="P6" t="n">
-        <v>602112.88901374</v>
+        <v>601138.2977540207</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541046</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.889840767290656e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.889840767290656e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>283.7905104653191</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>47.83894565168976</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>209.3638067647188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>362.9856178555307</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>224.2269935102852</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>16.27690962649703</v>
+        <v>96.44405126592673</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>60.87301268002753</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551404</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443634</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444963</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176658</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961219</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604151</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304467</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956555</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927218</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540915</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947018</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647515</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446489</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104689</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562952</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354907</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354112</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386734</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127096</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215743</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622998</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847359005</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.558410972487</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813486</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855548</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458567</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710968</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095124</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677482</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361527</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680337</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081172</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990352</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298654</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822389</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557943</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196136</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171332</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263762</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065643</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469082</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235698</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337705</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336914</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.39802836989228</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351857</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>546.4549645786756</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>495.6240934217712</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35986,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>492.1965505854582</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M33" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>510.0474576375741</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415094</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303351</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109099</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221148</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408115</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951501</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109148</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502067</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970347745</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953164</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879408</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560263</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504686</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415688</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>565.9730352236445</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315265</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507532</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556609</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299115</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799297</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789738</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056048</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520604</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118017</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187541</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3724695.457291199</v>
+        <v>3729634.720140232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>83.85112090809149</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123.0855352763924</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>96.24569585007838</v>
       </c>
       <c r="G5" t="n">
-        <v>189.5571765105098</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>59.72683757586842</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850742</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095423</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.149833621077</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>87.90024861273406</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.9052243575423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>88.37735646243617</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W22" t="n">
-        <v>146.1854691670925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>28.56876306769616</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274171</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>41.88171928086648</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>577.9834619915252</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>192.195209393281</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4467,22 +4467,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>979.5885935818915</v>
+        <v>1108.378893121371</v>
       </c>
       <c r="C5" t="n">
-        <v>610.6260766414798</v>
+        <v>1108.378893121371</v>
       </c>
       <c r="D5" t="n">
-        <v>252.3603780347293</v>
+        <v>1108.378893121371</v>
       </c>
       <c r="E5" t="n">
-        <v>252.3603780347293</v>
+        <v>722.5906405231267</v>
       </c>
       <c r="F5" t="n">
-        <v>245.4148772855258</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177207</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646013</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.188433646013</v>
+        <v>1108.378893121371</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4707,25 +4707,25 @@
         <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858881</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>529.7758821321494</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>379.6592427198136</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>231.7461491374205</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,13 +5026,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>1410.12814064605</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383756</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5463,7 +5463,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
         <v>1158.436939387592</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1098.651100002516</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,31 +6639,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6703,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,31 +6952,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805479</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822472</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395179</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.67942899455252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>197.8599959361412</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W22" t="n">
-        <v>140.3375291694985</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.8451328388531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>197.140892321341</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>124.6118491825111</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="44">
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="I2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="J2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="O2" t="n">
-        <v>723403.760514761</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26438,22 +26438,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531769</v>
+        <v>-87854.09747531766</v>
       </c>
       <c r="C6" t="n">
+        <v>502113.7817392269</v>
+      </c>
+      <c r="D6" t="n">
         <v>502113.7817392267</v>
       </c>
-      <c r="D6" t="n">
-        <v>502113.7817392268</v>
-      </c>
       <c r="E6" t="n">
-        <v>75978.26127712447</v>
+        <v>76855.39341087441</v>
       </c>
       <c r="F6" t="n">
-        <v>601138.2977540205</v>
+        <v>602015.42988777</v>
       </c>
       <c r="G6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="H6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.42988777</v>
       </c>
       <c r="I6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="J6" t="n">
-        <v>424715.0785614277</v>
+        <v>425592.2106951774</v>
       </c>
       <c r="K6" t="n">
-        <v>601138.2977540207</v>
+        <v>602015.4298877704</v>
       </c>
       <c r="L6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="M6" t="n">
-        <v>466337.2825201837</v>
+        <v>467214.4146539329</v>
       </c>
       <c r="N6" t="n">
-        <v>601138.2977540207</v>
+        <v>602015.42988777</v>
       </c>
       <c r="O6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877701</v>
       </c>
       <c r="P6" t="n">
-        <v>601138.2977540207</v>
+        <v>602015.4298877701</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>281.421770862916</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>283.7905104653191</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>310.630349891633</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2269935102852</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.44405126592673</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>4.167450853507134</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.3335701879975</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339484</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>14.59587156758277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551404</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
